--- a/reference/Core6ResourcesTable20240225.xlsx
+++ b/reference/Core6ResourcesTable20240225.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1BB8C-14B8-624E-AE6B-3CF0DB4EC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F6DCD-F0C8-5F43-B2CA-FCE5D804744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="31180" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="500" windowWidth="31180" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="960">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -3287,56 +3287,6 @@
   </si>
   <si>
     <t>"http://jami.jp/CodeSystem/MedicationMethodDetailUsage"</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
-http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Condition_eCS　を設定する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Condition_eCS　を設定すること。</t>
-    </r>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Condition_eCS"
-または
-"http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Condition_eCS"</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
-http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_AllergyIntolerance_eCS　を設定する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/clins/StructureDefinition/JP_AllergyIntolerance_eCS　を設定すること。</t>
-    </r>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_AllergyIntolerance_eCS"
-または
-"http://jpfhir.jp/fhir/clins/StructureDefinition/JP_AllergyIntolerance_eCS"</t>
     <phoneticPr fontId="27"/>
   </si>
   <si>
@@ -3537,56 +3487,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
-http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_MedicationRequest_eCS　を設定する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/clins/StructureDefinition/JP_MedicationRequest_eCS　を設定すること。</t>
-    </r>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_MedicationRequest_eCS"
-または
-"http://jpfhir.jp/fhir/clins/StructureDefinition/JP_MedicationRequest_eCS"</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
-http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Observation_LabResult_eCS　を設定する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Observation_LabResult_eCS　を設定すること。</t>
-    </r>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Observation_LabResult_eCS"
-または
-"http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Observation_LabResult_eCS"</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <r>
       <t>臨床的状態。病名最終日（abatementDateTime)での状態（転帰）。コードでの記述は必須。ただし、verificationStatus要素が'entered-in-error'であれば、本要素は存在してはならない。</t>
     </r>
     <r>
@@ -3614,31 +3514,6 @@
     <phoneticPr fontId="27"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
-http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS　を設定する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Encounter_eCS　を設定すること。</t>
-    </r>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS"
-または
-"http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Encounter_eCS"</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
     <t>"finished"</t>
   </si>
   <si>
@@ -4066,16 +3941,6 @@
     <phoneticPr fontId="27"/>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Bundle_CLINS</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
-http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Bundle_CLINS　を設定する。
-</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
     <t>本リソースのメタデータ。
 CLINSでのBundleリソースに含まれる６情報リソースカテゴリーをmeta.tag要素に記述する。</t>
     <phoneticPr fontId="27"/>
@@ -4306,24 +4171,6 @@
     <t>医薬品名称。コード表におけるコードに対応する表示文字列。.text要素とは異なる文字列となることがある。
 標準コードなしのコードを使う場合には、"標準コードなし"を設定する。</t>
     <phoneticPr fontId="33"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"からfood|medication|environment|biologic（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。電子カルテシステムで、これらのカテゴリーが区別されて登録されている場合には可能な限りコードを設定すること。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報サービスでは、薬剤禁忌情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならず、criticality要素は"high"を設定しなければならない。これ以外の場合には、本リソースの情報は薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
-    </r>
-    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/StructureDefinition/ExpectedRepeatCount</t>
@@ -5559,23 +5406,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Reference(JP_Patient )
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電子カルテ情報サービスでは、Reference(JP_Patient_CLINS_eCS)</t>
-    </r>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">本情報を作成発行した医療機関の識別番号を記述するために使用する拡張「eCS_InstitutionNumber」。
 本情報は、ServiceRequestの要素として記述することも可能であるが、その場合もこの拡張で記述することとする。
 </t>
@@ -5695,17 +5525,6 @@
   </si>
   <si>
     <t>JAMI(SS-MIX2) 診療科コード表のURI。</t>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>JAMI(SS-MIX2) 診療科コード。2桁また3桁コード。</t>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">ケタ </t>
-    </rPh>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>JAMI(SS-MIX2) 診療科コードでのコードに対応する表示名。</t>
     <phoneticPr fontId="27"/>
   </si>
   <si>
@@ -6644,56 +6463,163 @@
     <phoneticPr fontId="27"/>
   </si>
   <si>
+    <t>上記と同じ。同一のBundleリソースに格納されるすべてのentryは、Patientリソースを除き同一のリソース種別、同一のプロファイルに準拠していなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジョウキ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">カクノウ </t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t xml:space="preserve">ノゾキ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t xml:space="preserve">ジュンキョ </t>
+    </rPh>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>"urn:uuid:1304f64f-4e45-be12-ddd6-fab7895db0c3"</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_AllergyIntolerance_eCS　を設定する。
+電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_AllergyIntolerance_eCS　を設定すること。</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_AllergyIntolerance_eCS"
+または
+"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_AllergyIntolerance_eCS"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Bundle_CLINS　を設定する。
+</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Bundle_CLINS</t>
+  </si>
+  <si>
     <t>{
         "resourceType": "Observation",
         "id": "InlineExample-Patient-standard",
         "meta": {
           "profile": [
-            "http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Observation_LabResult_eCS"
+            "http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Observation_LabResult_eCS"
           ]
         }, 
 &lt;以降省略&gt;</t>
+    <rPh sb="223" eb="225">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
     <rPh sb="225" eb="227">
-      <t xml:space="preserve">イコウ </t>
-    </rPh>
-    <rPh sb="227" eb="229">
       <t xml:space="preserve">ショウリャク </t>
     </rPh>
     <phoneticPr fontId="27"/>
   </si>
   <si>
-    <t>上記と同じ。同一のBundleリソースに格納されるすべてのentryは、Patientリソースを除き同一のリソース種別、同一のプロファイルに準拠していなければならない。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョウキ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">オナジ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ドウイツ </t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">カクノウ </t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t xml:space="preserve">ノゾキ </t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t xml:space="preserve">ドウイツ </t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t xml:space="preserve">シュベツ </t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t xml:space="preserve">ドウイツ </t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t xml:space="preserve">ジュンキョ </t>
-    </rPh>
-    <phoneticPr fontId="27"/>
-  </si>
-  <si>
-    <t>"urn:uuid:1304f64f-4e45-be12-ddd6-fab7895db0c3"</t>
+    <t>準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Condition_eCS　を設定する。
+電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Condition_eCS　を設定すること。</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Condition_eCS"
+または
+"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Condition_eCS"</t>
+  </si>
+  <si>
+    <t>準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS　を設定する。
+電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS　を設定すること。</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS"
+または
+"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Encounter_eCS"</t>
+  </si>
+  <si>
+    <t>準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_MedicationRequest_eCS　を設定する。
+電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_MedicationRequest_eCS　を設定すること。</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_MedicationRequest_eCS"
+または
+"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_MedicationRequest_eCS"</t>
+  </si>
+  <si>
+    <t>準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Observation_LabResult_eCS　を設定する。
+電子カルテ情報共有サービスに本リソースデータを送信する場合には、http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Observation_LabResult_eCS　を設定すること。</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Observation_LabResult_eCS"
+または
+"http://jpfhir.jp/fhir/eCS/StructureDefinition/JP_Observation_LabResult_eCS"</t>
+  </si>
+  <si>
+    <t>Reference(JP_Patient )
+電子カルテ情報サービスでは、Reference(JP_Patient_eCS)</t>
+  </si>
+  <si>
+    <t>JAMI(SS-MIX2) 診療科コード。2桁コードだけを使用する。</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ケタ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>JAMI(SS-MIX2) 診療科2桁コードでのコードに対応する表示名。</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>"循環器内科"</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ジュンカンキ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ナイカ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特定された原因物質のカテゴリ。記述を可能な限り推奨する。コード表："http://hl7.org/fhir/allergy-intolerance-category"からfood|medication|environment|biologic（食物、医薬品、環境、バイオロジー物質）のいずれかを選択する。電子カルテシステムで、これらのカテゴリーが区別されて登録されている場合には可能な限りコードを設定すること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子カルテ情報サービスでは、薬剤アレルギー情報として本リソース種別を使用する場合には、必ず本要素は"medication"として存在しなければならない。これ以外の場合には、本リソースの情報は薬剤禁忌以外のアレルギー情報として取り扱われる。</t>
+    </r>
     <phoneticPr fontId="27"/>
   </si>
 </sst>
@@ -9471,8 +9397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C214C-25F4-6346-B06E-46249A5B8A3E}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -9612,13 +9538,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="111" t="s">
-        <v>593</v>
+        <v>942</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>584</v>
       </c>
       <c r="I6" s="112" t="s">
-        <v>594</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15">
@@ -9660,7 +9586,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="159" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>11</v>
@@ -9687,7 +9613,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="111" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>11</v>
@@ -9796,7 +9722,7 @@
         <v>337</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="D15" s="79"/>
       <c r="E15" s="218" t="s">
@@ -9806,7 +9732,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="191" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="H15" s="79" t="s">
         <v>342</v>
@@ -9973,7 +9899,7 @@
         <v>412</v>
       </c>
       <c r="G22" s="180" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="217"/>
@@ -9998,7 +9924,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="180" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="H23" s="79" t="s">
         <v>342</v>
@@ -10027,7 +9953,7 @@
         <v>371</v>
       </c>
       <c r="G24" s="180" t="s">
-        <v>868</v>
+        <v>956</v>
       </c>
       <c r="H24" s="161" t="s">
         <v>493</v>
@@ -10056,7 +9982,7 @@
         <v>371</v>
       </c>
       <c r="G25" s="180" t="s">
-        <v>869</v>
+        <v>957</v>
       </c>
       <c r="H25" s="161" t="s">
         <v>493</v>
@@ -10089,7 +10015,7 @@
         <v>493</v>
       </c>
       <c r="I26" s="224" t="s">
-        <v>496</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15">
@@ -10106,7 +10032,7 @@
         <v>35</v>
       </c>
       <c r="G27" s="111" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="112"/>
@@ -10125,14 +10051,14 @@
         <v>35</v>
       </c>
       <c r="G28" s="277" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="112"/>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="109" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -10146,7 +10072,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="182" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>11</v>
@@ -10171,13 +10097,13 @@
         <v>39</v>
       </c>
       <c r="G30" s="300" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="112" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60">
@@ -10194,7 +10120,7 @@
         <v>42</v>
       </c>
       <c r="G31" s="111" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="112"/>
@@ -10298,7 +10224,7 @@
         <v>17</v>
       </c>
       <c r="I35" s="112" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
@@ -10317,7 +10243,7 @@
         <v>39</v>
       </c>
       <c r="G36" s="111" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="112"/>
@@ -10336,7 +10262,7 @@
         <v>42</v>
       </c>
       <c r="G37" s="111" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="112"/>
@@ -10413,7 +10339,7 @@
         <v>17</v>
       </c>
       <c r="I40" s="112" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30">
@@ -10440,7 +10366,7 @@
         <v>17</v>
       </c>
       <c r="I41" s="112" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30">
@@ -10459,7 +10385,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="111" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="112"/>
@@ -10487,7 +10413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="195">
+    <row r="44" spans="1:9" ht="180">
       <c r="A44" s="109" t="s">
         <v>56</v>
       </c>
@@ -10501,7 +10427,7 @@
         <v>28</v>
       </c>
       <c r="G44" s="111" t="s">
-        <v>731</v>
+        <v>959</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>17</v>
@@ -10568,7 +10494,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="111" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="112"/>
@@ -10591,7 +10517,7 @@
         <v>25</v>
       </c>
       <c r="G48" s="111" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>17</v>
@@ -10624,7 +10550,7 @@
         <v>17</v>
       </c>
       <c r="I49" s="112" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15">
@@ -10651,7 +10577,7 @@
         <v>17</v>
       </c>
       <c r="I50" s="112" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45">
@@ -10676,7 +10602,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="112" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="120">
@@ -10690,16 +10616,16 @@
         <v>10</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>861</v>
+        <v>955</v>
       </c>
       <c r="G52" s="111" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60">
@@ -10716,13 +10642,13 @@
         <v>395</v>
       </c>
       <c r="G53" s="111" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="195">
@@ -11309,13 +11235,13 @@
         <v>396</v>
       </c>
       <c r="G78" s="111" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I78" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="90">
@@ -11329,16 +11255,16 @@
         <v>41</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="G79" s="111" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I79" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15">
@@ -11384,7 +11310,7 @@
         <v>110</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -11420,7 +11346,7 @@
         <v>69</v>
       </c>
       <c r="G83" s="111" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="112"/>
@@ -11441,7 +11367,7 @@
         <v>117</v>
       </c>
       <c r="G84" s="111" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="112"/>
@@ -11529,7 +11455,7 @@
         <v>453</v>
       </c>
       <c r="G88" s="111" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>17</v>
@@ -11693,7 +11619,7 @@
         <v>17</v>
       </c>
       <c r="I94" s="112" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="30">
@@ -12142,27 +12068,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="B1" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="C1" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="D1" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="E1" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="E2" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -12175,7 +12101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA92E4C-6FC3-1D48-B01E-54D12D9CB0C9}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="162" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="162" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -12247,13 +12173,13 @@
         <v>371</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -12316,13 +12242,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="95" t="s">
-        <v>702</v>
+        <v>944</v>
       </c>
       <c r="H6" s="84" t="s">
         <v>584</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>701</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="45">
@@ -12341,7 +12267,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="85"/>
@@ -12364,13 +12290,13 @@
         <v>25</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="120">
@@ -12391,18 +12317,18 @@
         <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>543</v>
       </c>
       <c r="I9" s="85" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="131" customHeight="1">
       <c r="A10" s="98" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -12414,14 +12340,14 @@
         <v>35</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9" ht="42">
       <c r="A11" s="98" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>24</v>
@@ -12435,18 +12361,18 @@
         <v>453</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>584</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="211" customHeight="1">
       <c r="A12" s="98" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>38</v>
@@ -12460,13 +12386,13 @@
         <v>371</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>543</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
@@ -12483,18 +12409,18 @@
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>584</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="62" customHeight="1">
       <c r="A14" s="98" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -12506,18 +12432,18 @@
         <v>559</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15" s="98" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -12526,20 +12452,20 @@
         <v>195</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9" ht="94" customHeight="1">
       <c r="A16" s="98" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -12550,21 +12476,21 @@
         <v>453</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="225">
       <c r="A17" s="98" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -12572,24 +12498,24 @@
         <v>203</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
       <c r="A18" s="98" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -12600,21 +12526,21 @@
         <v>453</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="225">
       <c r="A19" s="98" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -12622,21 +12548,21 @@
         <v>209</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
       <c r="A20" s="307" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B20" s="308"/>
       <c r="C20" s="308"/>
@@ -12649,10 +12575,10 @@
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="98" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -12663,21 +12589,21 @@
         <v>453</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="226" thickBot="1">
       <c r="A22" s="132" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -12685,16 +12611,16 @@
         <v>209</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>226</v>
       </c>
       <c r="I22" s="102" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -12704,7 +12630,7 @@
   </mergeCells>
   <phoneticPr fontId="27"/>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{2E73B75B-5DE8-F041-98F0-4A2A2B57C1EE}"/>
+    <hyperlink ref="I6" r:id="rId1" display="http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Bundle_CLINS" xr:uid="{2E73B75B-5DE8-F041-98F0-4A2A2B57C1EE}"/>
     <hyperlink ref="I8" r:id="rId2" xr:uid="{89D11DF3-7D1A-5843-83F6-68C56C37777B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12864,13 +12790,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="111" t="s">
-        <v>591</v>
+        <v>947</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>584</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>592</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12914,7 +12840,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="159" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>11</v>
@@ -12942,7 +12868,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>11</v>
@@ -12970,7 +12896,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="159" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>11</v>
@@ -12998,13 +12924,13 @@
         <v>28</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="120" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -13026,7 +12952,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="159" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>11</v>
@@ -13054,13 +12980,13 @@
         <v>28</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="120" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13087,7 +13013,7 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -13176,7 +13102,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="191" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="I19" s="79" t="s">
         <v>342</v>
@@ -13488,7 +13414,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="111" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="119"/>
@@ -13508,14 +13434,14 @@
         <v>35</v>
       </c>
       <c r="H32" s="277" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="120"/>
     </row>
     <row r="33" spans="1:10" ht="45">
       <c r="A33" s="109" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>24</v>
@@ -13530,7 +13456,7 @@
         <v>453</v>
       </c>
       <c r="H33" s="182" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>11</v>
@@ -13556,13 +13482,13 @@
         <v>39</v>
       </c>
       <c r="H34" s="300" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="112" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="60">
@@ -13580,7 +13506,7 @@
         <v>42</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="120"/>
@@ -13808,7 +13734,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="120" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30">
@@ -13836,7 +13762,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="120" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="45">
@@ -13876,13 +13802,13 @@
         <v>210</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="120" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -13902,7 +13828,7 @@
         <v>22</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="120"/>
@@ -13926,11 +13852,11 @@
         <v>25</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="246" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30">
@@ -13952,13 +13878,13 @@
         <v>28</v>
       </c>
       <c r="H50" s="159" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="120" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="45">
@@ -13980,11 +13906,11 @@
         <v>39</v>
       </c>
       <c r="H51" s="247" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="120" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="90">
@@ -14026,7 +13952,7 @@
         <v>210</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="120"/>
@@ -14046,7 +13972,7 @@
       </c>
       <c r="G54" s="178"/>
       <c r="H54" s="180" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="I54" s="161"/>
       <c r="J54" s="217"/>
@@ -14068,7 +13994,7 @@
         <v>247</v>
       </c>
       <c r="H55" s="180" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="I55" s="162"/>
       <c r="J55" s="220"/>
@@ -14092,13 +14018,13 @@
         <v>25</v>
       </c>
       <c r="H56" s="84" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>554</v>
       </c>
       <c r="J56" s="246" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
@@ -14120,7 +14046,7 @@
         <v>210</v>
       </c>
       <c r="H57" s="84" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="120"/>
@@ -14146,7 +14072,7 @@
         <v>412</v>
       </c>
       <c r="H58" s="84" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="120"/>
@@ -14174,13 +14100,13 @@
         <v>453</v>
       </c>
       <c r="H59" s="84" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>543</v>
       </c>
       <c r="J59" s="120" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
@@ -14206,7 +14132,7 @@
         <v>371</v>
       </c>
       <c r="H60" s="84" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="120"/>
@@ -14234,7 +14160,7 @@
         <v>371</v>
       </c>
       <c r="H61" s="84" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="120"/>
@@ -14260,7 +14186,7 @@
         <v>371</v>
       </c>
       <c r="H62" s="84" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="120"/>
@@ -14282,7 +14208,7 @@
         <v>247</v>
       </c>
       <c r="H63" s="180" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="I63" s="162"/>
       <c r="J63" s="220"/>
@@ -14306,13 +14232,13 @@
         <v>25</v>
       </c>
       <c r="H64" s="84" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>554</v>
       </c>
       <c r="J64" s="246" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30">
@@ -14334,7 +14260,7 @@
         <v>210</v>
       </c>
       <c r="H65" s="84" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="120"/>
@@ -14360,7 +14286,7 @@
         <v>412</v>
       </c>
       <c r="H66" s="84" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="120"/>
@@ -14388,13 +14314,13 @@
         <v>453</v>
       </c>
       <c r="H67" s="84" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>543</v>
       </c>
       <c r="J67" s="120" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
@@ -14420,7 +14346,7 @@
         <v>371</v>
       </c>
       <c r="H68" s="84" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="120"/>
@@ -14448,7 +14374,7 @@
         <v>371</v>
       </c>
       <c r="H69" s="84" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="120"/>
@@ -14474,7 +14400,7 @@
         <v>371</v>
       </c>
       <c r="H70" s="84" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="120"/>
@@ -14496,7 +14422,7 @@
         <v>22</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="120"/>
@@ -14520,13 +14446,13 @@
         <v>25</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J72" s="120" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="75">
@@ -14548,7 +14474,7 @@
         <v>28</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>17</v>
@@ -14576,7 +14502,7 @@
         <v>39</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>17</v>
@@ -14602,7 +14528,7 @@
         <v>39</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I75" s="12" t="s">
         <v>17</v>
@@ -14647,16 +14573,16 @@
         <v>10</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>861</v>
+        <v>955</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="I77" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J77" s="120" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60">
@@ -14674,13 +14600,13 @@
         <v>395</v>
       </c>
       <c r="H78" s="111" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J78" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="255">
@@ -14698,14 +14624,14 @@
         <v>67</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="120"/>
     </row>
     <row r="80" spans="1:10" ht="105">
       <c r="A80" s="109" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -14718,7 +14644,7 @@
         <v>69</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>17</v>
@@ -15272,7 +15198,7 @@
         <v>67</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="120"/>
@@ -15292,7 +15218,7 @@
         <v>69</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>17</v>
@@ -15340,13 +15266,13 @@
         <v>396</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J105" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="105">
@@ -15364,13 +15290,13 @@
         <v>397</v>
       </c>
       <c r="H106" s="52" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J106" s="112" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -15408,13 +15334,13 @@
         <v>42</v>
       </c>
       <c r="H108" s="310" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="I108" s="311" t="s">
         <v>226</v>
       </c>
       <c r="J108" s="185" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -15446,7 +15372,7 @@
       <c r="H110" s="310"/>
       <c r="I110" s="313"/>
       <c r="J110" s="185" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="90">
@@ -15466,13 +15392,13 @@
         <v>398</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J111" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="45">
@@ -15492,7 +15418,7 @@
         <v>42</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="I112" s="22"/>
       <c r="J112" s="185"/>
@@ -15510,7 +15436,7 @@
       </c>
       <c r="G113" s="22"/>
       <c r="H113" s="22" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="I113" s="22"/>
       <c r="J113" s="185"/>
@@ -15538,7 +15464,7 @@
         <v>17</v>
       </c>
       <c r="J114" s="185" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -15602,7 +15528,7 @@
         <v>17</v>
       </c>
       <c r="J117" s="185" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -15644,7 +15570,7 @@
         <v>117</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="I119" s="23"/>
       <c r="J119" s="186"/>
@@ -15908,7 +15834,7 @@
         <v>304</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="H10" s="195"/>
       <c r="I10" s="192"/>
@@ -15964,7 +15890,7 @@
         <v>342</v>
       </c>
       <c r="I12" s="192" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
@@ -16035,13 +15961,13 @@
         <v>39</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="196" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="210">
@@ -16058,7 +15984,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="H16" s="194"/>
       <c r="I16" s="193"/>
@@ -16100,7 +16026,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>342</v>
@@ -16127,7 +16053,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>17</v>
@@ -16160,7 +16086,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="192" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="76" thickBot="1">
@@ -16331,7 +16257,7 @@
         <v>342</v>
       </c>
       <c r="I27" s="192" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30">
@@ -16354,7 +16280,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>342</v>
@@ -16383,7 +16309,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>342</v>
@@ -16431,7 +16357,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="H31" s="195"/>
       <c r="I31" s="192"/>
@@ -16456,7 +16382,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>342</v>
@@ -16520,7 +16446,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="192" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31" thickBot="1">
@@ -16547,7 +16473,7 @@
         <v>17</v>
       </c>
       <c r="I35" s="192" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31" thickBot="1">
@@ -16564,7 +16490,7 @@
         <v>311</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="H36" s="197"/>
       <c r="I36" s="196"/>
@@ -16583,7 +16509,7 @@
         <v>42</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="H37" s="194"/>
       <c r="I37" s="193"/>
@@ -16654,7 +16580,7 @@
         <v>28</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>17</v>
@@ -16681,13 +16607,13 @@
         <v>39</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="192" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
@@ -16712,7 +16638,7 @@
         <v>17</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
@@ -16750,7 +16676,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="H44" s="195"/>
       <c r="I44" s="192"/>
@@ -16779,7 +16705,7 @@
         <v>342</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -16833,7 +16759,7 @@
         <v>17</v>
       </c>
       <c r="I47" s="192" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="31" thickBot="1">
@@ -16858,7 +16784,7 @@
         <v>17</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="60">
@@ -16896,7 +16822,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="H50" s="195"/>
       <c r="I50" s="192"/>
@@ -16919,7 +16845,7 @@
         <v>25</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="H51" s="22" t="s">
         <v>342</v>
@@ -16946,7 +16872,7 @@
         <v>28</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>17</v>
@@ -16973,13 +16899,13 @@
         <v>39</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="192" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="31" thickBot="1">
@@ -17004,7 +16930,7 @@
         <v>17</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="165">
@@ -17021,7 +16947,7 @@
         <v>308</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="H55" s="194"/>
       <c r="I55" s="193"/>
@@ -17042,7 +16968,7 @@
         <v>42</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="H56" s="198"/>
       <c r="I56" s="199"/>
@@ -17152,7 +17078,7 @@
         <v>17</v>
       </c>
       <c r="I60" s="192" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="90">
@@ -17171,7 +17097,7 @@
         <v>94</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="H61" s="198"/>
       <c r="I61" s="199"/>
@@ -17194,7 +17120,7 @@
         <v>74</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>17</v>
@@ -17227,7 +17153,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="192" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30">
@@ -17248,7 +17174,7 @@
         <v>25</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>342</v>
@@ -17300,7 +17226,7 @@
         <v>317</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="H66" s="198"/>
       <c r="I66" s="199"/>
@@ -17323,7 +17249,7 @@
         <v>319</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="H67" s="195"/>
       <c r="I67" s="192"/>
@@ -17348,7 +17274,7 @@
         <v>74</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>17</v>
@@ -17383,7 +17309,7 @@
         <v>17</v>
       </c>
       <c r="I69" s="192" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30">
@@ -17406,7 +17332,7 @@
         <v>453</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>342</v>
@@ -17462,7 +17388,7 @@
         <v>319</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="H72" s="195"/>
       <c r="I72" s="192"/>
@@ -17522,7 +17448,7 @@
         <v>342</v>
       </c>
       <c r="I74" s="192" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30">
@@ -17545,7 +17471,7 @@
         <v>25</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>342</v>
@@ -17574,7 +17500,7 @@
         <v>28</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="H76" s="23" t="s">
         <v>342</v>
@@ -17675,13 +17601,13 @@
         <v>371</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -17744,18 +17670,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="95" t="s">
-        <v>605</v>
+        <v>949</v>
       </c>
       <c r="H6" s="84" t="s">
         <v>584</v>
       </c>
       <c r="I6" s="96" t="s">
-        <v>606</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="98" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -17767,7 +17693,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="92"/>
@@ -17786,14 +17712,14 @@
         <v>35</v>
       </c>
       <c r="G8" s="277" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="A9" s="98" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>24</v>
@@ -17805,7 +17731,7 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="182" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>17</v>
@@ -17816,7 +17742,7 @@
     </row>
     <row r="10" spans="1:9" ht="62" customHeight="1">
       <c r="A10" s="98" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
@@ -17828,13 +17754,13 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="300" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="112" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45">
@@ -17851,18 +17777,18 @@
         <v>28</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>584</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="98" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -17874,14 +17800,14 @@
         <v>22</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9" ht="45">
       <c r="A13" s="98" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
@@ -17895,18 +17821,18 @@
         <v>25</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>584</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60">
       <c r="A14" s="98" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>28</v>
@@ -17920,18 +17846,18 @@
         <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15" s="98" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>125</v>
@@ -17945,18 +17871,18 @@
         <v>39</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45">
       <c r="A16" s="98" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -17966,17 +17892,17 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1">
       <c r="A17" s="98" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -17987,17 +17913,17 @@
         <v>22</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="92"/>
     </row>
     <row r="18" spans="1:9" ht="45">
       <c r="A18" s="98" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>24</v>
@@ -18010,21 +17936,21 @@
         <v>25</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>584</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75">
       <c r="A19" s="98" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>28</v>
@@ -18035,21 +17961,21 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27" customHeight="1">
       <c r="A20" s="98" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>125</v>
@@ -18060,21 +17986,21 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>226</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="98" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -18083,17 +18009,17 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9" ht="45">
       <c r="A22" s="98" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>86</v>
@@ -18106,7 +18032,7 @@
         <v>69</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="92" t="s">
@@ -18115,10 +18041,10 @@
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="98" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>88</v>
@@ -18131,16 +18057,16 @@
         <v>69</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="92" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="41" customHeight="1">
       <c r="A24" s="98" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -18149,17 +18075,17 @@
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="92"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="98" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>86</v>
@@ -18173,16 +18099,16 @@
         <v>69</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="92" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="98" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>88</v>
@@ -18196,16 +18122,16 @@
         <v>69</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="92" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="98" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -18217,14 +18143,14 @@
         <v>304</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="98" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>38</v>
@@ -18238,7 +18164,7 @@
         <v>74</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="92">
@@ -18247,7 +18173,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="98" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>79</v>
@@ -18261,16 +18187,16 @@
         <v>39</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="92" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="29" customHeight="1">
       <c r="A30" s="98" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>24</v>
@@ -18284,7 +18210,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="92" t="s">
@@ -18293,7 +18219,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="98" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>28</v>
@@ -18307,7 +18233,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="92" t="s">
@@ -18316,7 +18242,7 @@
     </row>
     <row r="32" spans="1:9" ht="135">
       <c r="A32" s="98" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -18328,18 +18254,18 @@
         <v>42</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>543</v>
       </c>
       <c r="I32" s="302" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="98" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -18349,17 +18275,17 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="92"/>
     </row>
     <row r="34" spans="1:9" ht="45">
       <c r="A34" s="98" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -18367,20 +18293,20 @@
         <v>10</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="92"/>
     </row>
     <row r="35" spans="1:9" ht="90">
       <c r="A35" s="98" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -18391,17 +18317,17 @@
         <v>42</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="92"/>
     </row>
     <row r="36" spans="1:9" ht="30">
       <c r="A36" s="98" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>345</v>
@@ -18412,17 +18338,17 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="92"/>
     </row>
     <row r="37" spans="1:9" ht="58" customHeight="1">
       <c r="A37" s="98" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>346</v>
@@ -18435,19 +18361,19 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="92" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="98" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>347</v>
@@ -18460,19 +18386,19 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="92" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="98" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>347</v>
@@ -18485,19 +18411,19 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="92" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30">
       <c r="A40" s="98" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -18505,10 +18431,10 @@
         <v>41</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="92">
@@ -18517,7 +18443,7 @@
     </row>
     <row r="41" spans="1:9" ht="30">
       <c r="A41" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -18529,17 +18455,17 @@
         <v>120</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="92"/>
     </row>
     <row r="42" spans="1:9" ht="60">
       <c r="A42" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -18547,20 +18473,20 @@
         <v>41</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="92"/>
     </row>
     <row r="43" spans="1:9" ht="135">
       <c r="A43" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -18571,21 +18497,21 @@
         <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>554</v>
       </c>
       <c r="I43" s="286" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30">
       <c r="A44" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -18596,17 +18522,17 @@
         <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="92"/>
     </row>
     <row r="45" spans="1:9" ht="30">
       <c r="A45" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -18617,17 +18543,17 @@
         <v>42</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="92"/>
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="A46" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -18638,17 +18564,17 @@
         <v>42</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="92"/>
     </row>
     <row r="47" spans="1:9" ht="60">
       <c r="A47" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -18656,20 +18582,20 @@
         <v>41</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="92"/>
     </row>
     <row r="48" spans="1:9" ht="135">
       <c r="A48" s="98" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -18680,16 +18606,16 @@
         <v>42</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="286" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30">
       <c r="A49" s="98" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -18701,17 +18627,17 @@
         <v>120</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="92"/>
     </row>
     <row r="50" spans="1:9" ht="45">
       <c r="A50" s="98" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -18719,17 +18645,17 @@
         <v>41</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="92"/>
     </row>
     <row r="51" spans="1:9" ht="30">
       <c r="A51" s="98" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>234</v>
@@ -18743,21 +18669,21 @@
         <v>28</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>543</v>
       </c>
       <c r="I51" s="92" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="90">
       <c r="A52" s="98" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -18768,21 +18694,21 @@
         <v>42</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="I52" s="92" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="98" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -18793,17 +18719,17 @@
         <v>302</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="92"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="98" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>86</v>
@@ -18816,17 +18742,17 @@
         <v>69</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="92"/>
     </row>
     <row r="55" spans="1:9" ht="16" thickBot="1">
       <c r="A55" s="132" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>88</v>
@@ -18839,7 +18765,7 @@
         <v>69</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="102"/>
@@ -18883,7 +18809,7 @@
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="316" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="B1" s="316"/>
       <c r="C1" s="316"/>
@@ -18909,7 +18835,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>4</v>
@@ -18942,7 +18868,7 @@
         <v>371</v>
       </c>
       <c r="H3" s="271" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>11</v>
@@ -18986,7 +18912,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>17</v>
@@ -19012,13 +18938,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>598</v>
+        <v>951</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>584</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>599</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="49" customFormat="1">
@@ -19062,7 +18988,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>11</v>
@@ -19090,7 +19016,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>11</v>
@@ -19132,7 +19058,7 @@
         <v>387</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
@@ -19230,7 +19156,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="256" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="I16" s="79" t="s">
         <v>342</v>
@@ -19540,7 +19466,7 @@
         <v>35</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="61"/>
@@ -19560,14 +19486,14 @@
         <v>35</v>
       </c>
       <c r="H29" s="277" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="120"/>
     </row>
     <row r="30" spans="1:10" s="49" customFormat="1" ht="45">
       <c r="A30" s="252" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>24</v>
@@ -19582,7 +19508,7 @@
         <v>25</v>
       </c>
       <c r="H30" s="182" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>11</v>
@@ -19608,13 +19534,13 @@
         <v>39</v>
       </c>
       <c r="H31" s="300" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="112" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
@@ -19634,7 +19560,7 @@
         <v>25</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="I32" s="40" t="s">
         <v>11</v>
@@ -19686,7 +19612,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="I34" s="40" t="s">
         <v>11</v>
@@ -19882,7 +19808,7 @@
         <v>42</v>
       </c>
       <c r="H42" s="137" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="I42" s="38"/>
       <c r="J42" s="58"/>
@@ -19904,7 +19830,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="277" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="64"/>
@@ -19928,13 +19854,13 @@
         <v>25</v>
       </c>
       <c r="H44" s="129" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="64" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45">
@@ -19956,7 +19882,7 @@
         <v>28</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>17</v>
@@ -19984,13 +19910,13 @@
         <v>39</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="I46" s="47" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="66" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="46" thickBot="1">
@@ -20010,13 +19936,13 @@
         <v>39</v>
       </c>
       <c r="H47" s="248" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="65" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="45">
@@ -20034,13 +19960,13 @@
         <v>394</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" ht="60">
@@ -20058,13 +19984,13 @@
         <v>395</v>
       </c>
       <c r="H49" s="111" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:10" customFormat="1" ht="46" thickBot="1">
@@ -20082,13 +20008,13 @@
         <v>396</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="31" thickBot="1">
@@ -20130,13 +20056,13 @@
         <v>401</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="195">
@@ -20154,7 +20080,7 @@
         <v>108</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="58"/>
@@ -20288,7 +20214,7 @@
         <v>25</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="64" t="s">
@@ -20490,7 +20416,7 @@
         <v>247</v>
       </c>
       <c r="H66" s="46" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="I66" s="46"/>
       <c r="J66" s="66"/>
@@ -20514,13 +20440,13 @@
         <v>25</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="I67" s="15" t="s">
         <v>297</v>
       </c>
       <c r="J67" s="269" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
@@ -20626,7 +20552,7 @@
         <v>17</v>
       </c>
       <c r="J71" s="64" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30">
@@ -20648,7 +20574,7 @@
         <v>25</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="I72" s="15" t="s">
         <v>297</v>
@@ -20760,7 +20686,7 @@
         <v>297</v>
       </c>
       <c r="J76" s="68" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30">
@@ -20782,7 +20708,7 @@
         <v>25</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="I77" s="15" t="s">
         <v>297</v>
@@ -20810,7 +20736,7 @@
         <v>28</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>297</v>
@@ -20821,7 +20747,7 @@
     </row>
     <row r="79" spans="1:10" ht="30">
       <c r="A79" s="109" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -20906,7 +20832,7 @@
         <v>25</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="I82" s="15" t="s">
         <v>297</v>
@@ -20976,7 +20902,7 @@
         <v>17</v>
       </c>
       <c r="J84" s="65" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -21073,7 +20999,7 @@
         <v>371</v>
       </c>
       <c r="G3" s="178" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="H3" s="178"/>
       <c r="I3" s="234" t="s">
@@ -21111,7 +21037,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="H5" s="107" t="s">
         <v>17</v>
@@ -21136,13 +21062,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="111" t="s">
-        <v>600</v>
+        <v>953</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>584</v>
       </c>
       <c r="I6" s="112" t="s">
-        <v>601</v>
+        <v>954</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -21184,13 +21110,13 @@
         <v>25</v>
       </c>
       <c r="G8" s="114" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="108" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
@@ -21211,7 +21137,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="116" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="H9" s="116" t="s">
         <v>11</v>
@@ -21253,7 +21179,7 @@
         <v>480</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="120"/>
@@ -21327,7 +21253,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="191" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="H15" s="79" t="s">
         <v>342</v>
@@ -21625,7 +21551,7 @@
         <v>35</v>
       </c>
       <c r="G27" s="184" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="H27" s="126"/>
       <c r="I27" s="127"/>
@@ -21644,14 +21570,14 @@
         <v>35</v>
       </c>
       <c r="G28" s="277" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="112"/>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="287" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B29" s="107" t="s">
         <v>24</v>
@@ -21665,7 +21591,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="182" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>11</v>
@@ -21690,13 +21616,13 @@
         <v>39</v>
       </c>
       <c r="G30" s="300" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="112" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="165">
@@ -21713,7 +21639,7 @@
         <v>401</v>
       </c>
       <c r="G31" s="126" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="H31" s="126"/>
       <c r="I31" s="127"/>
@@ -21776,7 +21702,7 @@
         <v>412</v>
       </c>
       <c r="G34" s="129" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="H34" s="126"/>
       <c r="I34" s="66"/>
@@ -22015,13 +21941,13 @@
         <v>394</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>226</v>
       </c>
       <c r="I45" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="60">
@@ -22038,13 +21964,13 @@
         <v>395</v>
       </c>
       <c r="G46" s="111" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="60">
@@ -22067,7 +21993,7 @@
         <v>521</v>
       </c>
       <c r="I47" s="284" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="45">
@@ -22212,7 +22138,7 @@
         <v>453</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>493</v>
@@ -22442,7 +22368,7 @@
     </row>
     <row r="66" spans="1:9" ht="30">
       <c r="A66" s="22" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -22560,7 +22486,7 @@
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="140" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -22742,7 +22668,7 @@
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="234" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -22837,13 +22763,13 @@
         <v>467</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I85" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -22860,13 +22786,13 @@
         <v>371</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I86" s="120" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -22883,13 +22809,13 @@
         <v>371</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="120" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="30">
@@ -22982,7 +22908,7 @@
         <v>25</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="234" t="s">
@@ -23024,7 +22950,7 @@
         <v>469</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="234"/>
@@ -23085,7 +23011,7 @@
         <v>120</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="234"/>
@@ -23104,7 +23030,7 @@
         <v>42</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="234"/>
@@ -23120,10 +23046,10 @@
         <v>41</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="234"/>
@@ -23142,7 +23068,7 @@
         <v>42</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="234"/>
@@ -23161,7 +23087,7 @@
         <v>42</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="234"/>
@@ -23180,7 +23106,7 @@
         <v>120</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="236"/>
@@ -23224,7 +23150,7 @@
         <v>45319</v>
       </c>
       <c r="B2" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -23232,10 +23158,10 @@
         <v>45336</v>
       </c>
       <c r="B3" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C3" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -23243,15 +23169,15 @@
         <v>45346</v>
       </c>
       <c r="B4" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="C4" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -23276,40 +23202,40 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45">
       <c r="A1" s="111" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="111" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="111" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
